--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,232 +40,208 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>fight</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>shopping</t>
@@ -274,12 +250,24 @@
     <t>online</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
@@ -292,7 +280,7 @@
     <t>food</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -650,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -769,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -811,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -819,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L5">
         <v>44</v>
       </c>
-      <c r="K5">
-        <v>0.875</v>
-      </c>
-      <c r="L5">
-        <v>35</v>
-      </c>
       <c r="M5">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -861,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -869,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -887,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8627450980392157</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -961,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7662337662337663</v>
+        <v>0.6404109589041096</v>
       </c>
       <c r="C8">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="D8">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>105</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8235294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8235294117647058</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1119,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1137,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8214285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1161,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1187,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.7962962962962963</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6363636363636364</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1237,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>363</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1319,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5625</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5357142857142857</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7272727272727273</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L16">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1411,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5294117647058824</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1437,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7272727272727273</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1461,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1469,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1487,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.717948717948718</v>
+        <v>0.68125</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1511,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1519,37 +1507,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7068965517241379</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1561,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1569,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4736842105263158</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1611,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4678111587982833</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C21">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1637,31 +1625,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>17</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,13 +1657,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.45</v>
+        <v>0.04021447721179625</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1687,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>358</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.6712328767123288</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L22">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1711,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1719,37 +1707,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4137931034482759</v>
+        <v>0.004961958319550115</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>3008</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1761,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1769,951 +1757,687 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4074074074074074</v>
+        <v>0.004123057405645417</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
+        <v>3140</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.62</v>
+      </c>
+      <c r="L24">
+        <v>31</v>
+      </c>
+      <c r="M24">
+        <v>31</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>22</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26">
+        <v>0.566579634464752</v>
+      </c>
+      <c r="L26">
+        <v>217</v>
+      </c>
+      <c r="M26">
+        <v>217</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L27">
+        <v>18</v>
+      </c>
+      <c r="M27">
+        <v>18</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>16</v>
       </c>
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28">
+        <v>0.5280898876404494</v>
+      </c>
+      <c r="L28">
+        <v>47</v>
+      </c>
+      <c r="M28">
+        <v>47</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L29">
+        <v>14</v>
+      </c>
+      <c r="M29">
+        <v>14</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="L30">
+        <v>172</v>
+      </c>
+      <c r="M30">
+        <v>172</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>14</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32">
+        <v>0.4779661016949153</v>
+      </c>
+      <c r="L32">
+        <v>141</v>
+      </c>
+      <c r="M32">
+        <v>141</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33">
+        <v>0.4769230769230769</v>
+      </c>
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34">
+        <v>0.4383561643835616</v>
+      </c>
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K24">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L24">
-        <v>11</v>
-      </c>
-      <c r="M24">
-        <v>11</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
+      <c r="K35">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36">
+        <v>0.4225941422594142</v>
+      </c>
+      <c r="L36">
+        <v>101</v>
+      </c>
+      <c r="M36">
+        <v>101</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37">
+        <v>0.4</v>
+      </c>
+      <c r="L37">
+        <v>18</v>
+      </c>
+      <c r="M37">
+        <v>18</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38">
+        <v>0.390625</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>25</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39">
+        <v>0.375</v>
+      </c>
+      <c r="L39">
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <v>15</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40">
+        <v>0.3023255813953488</v>
+      </c>
+      <c r="L40">
+        <v>13</v>
+      </c>
+      <c r="M40">
+        <v>13</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>11</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L25">
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="L41">
         <v>18</v>
       </c>
-      <c r="M25">
+      <c r="M41">
         <v>18</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>13</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26">
-        <v>0.64</v>
-      </c>
-      <c r="L26">
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42">
+        <v>0.2542372881355932</v>
+      </c>
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <v>15</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43">
+        <v>0.1417322834645669</v>
+      </c>
+      <c r="L43">
+        <v>18</v>
+      </c>
+      <c r="M43">
+        <v>18</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44">
+        <v>0.1116279069767442</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>24</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45">
+        <v>0.1068702290076336</v>
+      </c>
+      <c r="L45">
+        <v>14</v>
+      </c>
+      <c r="M45">
+        <v>14</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46">
+        <v>0.1006289308176101</v>
+      </c>
+      <c r="L46">
         <v>16</v>
       </c>
-      <c r="M26">
+      <c r="M46">
         <v>16</v>
       </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.3625</v>
-      </c>
-      <c r="C27">
-        <v>29</v>
-      </c>
-      <c r="D27">
-        <v>29</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>51</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27">
-        <v>0.6384976525821596</v>
-      </c>
-      <c r="L27">
-        <v>136</v>
-      </c>
-      <c r="M27">
-        <v>136</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47">
+        <v>0.08648648648648649</v>
+      </c>
+      <c r="L47">
+        <v>16</v>
+      </c>
+      <c r="M47">
+        <v>16</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K48">
+        <v>0.07932692307692307</v>
+      </c>
+      <c r="L48">
         <v>33</v>
       </c>
-      <c r="B28">
-        <v>0.3260869565217391</v>
-      </c>
-      <c r="C28">
-        <v>15</v>
-      </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>31</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L28">
-        <v>8</v>
-      </c>
-      <c r="M28">
-        <v>8</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>18</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="L29">
-        <v>13</v>
-      </c>
-      <c r="M29">
-        <v>13</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.2906976744186047</v>
-      </c>
-      <c r="C30">
-        <v>25</v>
-      </c>
-      <c r="D30">
-        <v>25</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>61</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30">
-        <v>0.5769230769230769</v>
-      </c>
-      <c r="L30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.25</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>30</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31">
-        <v>0.5694444444444444</v>
-      </c>
-      <c r="L31">
-        <v>82</v>
-      </c>
-      <c r="M31">
-        <v>82</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="C32">
-        <v>25</v>
-      </c>
-      <c r="D32">
-        <v>25</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>85</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L32">
-        <v>14</v>
-      </c>
-      <c r="M32">
-        <v>14</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.1397849462365591</v>
-      </c>
-      <c r="C33">
-        <v>26</v>
-      </c>
-      <c r="D33">
-        <v>26</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>160</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K33">
-        <v>0.55</v>
-      </c>
-      <c r="L33">
-        <v>11</v>
-      </c>
-      <c r="M33">
-        <v>11</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.005056890012642225</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>23</v>
-      </c>
-      <c r="E34">
-        <v>0.65</v>
-      </c>
-      <c r="F34">
-        <v>0.35</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1574</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K34">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="L34">
-        <v>10</v>
-      </c>
-      <c r="M34">
-        <v>10</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.004533678756476684</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>27</v>
-      </c>
-      <c r="E35">
-        <v>0.74</v>
-      </c>
-      <c r="F35">
-        <v>0.26</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1537</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35">
-        <v>0.5116279069767442</v>
-      </c>
-      <c r="L35">
-        <v>66</v>
-      </c>
-      <c r="M35">
-        <v>66</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36">
-        <v>0.5</v>
-      </c>
-      <c r="L36">
-        <v>15</v>
-      </c>
-      <c r="M36">
-        <v>15</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="L37">
-        <v>11</v>
-      </c>
-      <c r="M37">
-        <v>11</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>0.4571428571428571</v>
-      </c>
-      <c r="L38">
-        <v>16</v>
-      </c>
-      <c r="M38">
-        <v>16</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K39">
-        <v>0.4565217391304348</v>
-      </c>
-      <c r="L39">
-        <v>42</v>
-      </c>
-      <c r="M39">
-        <v>42</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="L40">
-        <v>9</v>
-      </c>
-      <c r="M40">
-        <v>9</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41">
-        <v>0.35</v>
-      </c>
-      <c r="L41">
-        <v>7</v>
-      </c>
-      <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K42">
-        <v>0.3125</v>
-      </c>
-      <c r="L42">
-        <v>10</v>
-      </c>
-      <c r="M42">
-        <v>10</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K43">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="L43">
-        <v>10</v>
-      </c>
-      <c r="M43">
-        <v>10</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K44">
-        <v>0.2432432432432433</v>
-      </c>
-      <c r="L44">
-        <v>9</v>
-      </c>
-      <c r="M44">
-        <v>9</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K45">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="L45">
-        <v>16</v>
-      </c>
-      <c r="M45">
-        <v>17</v>
-      </c>
-      <c r="N45">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O45">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K46">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="L46">
-        <v>15</v>
-      </c>
-      <c r="M46">
-        <v>15</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K47">
-        <v>0.06097560975609756</v>
-      </c>
-      <c r="L47">
-        <v>25</v>
-      </c>
-      <c r="M47">
-        <v>25</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K48">
-        <v>0.04458598726114649</v>
-      </c>
-      <c r="L48">
-        <v>14</v>
-      </c>
       <c r="M48">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N48">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>300</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.0352112676056338</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2725,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>411</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.02857142857142857</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L50">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2751,73 +2475,73 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>272</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.02596239928379588</v>
+        <v>0.07158836689038031</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="M51">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N51">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1088</v>
+        <v>830</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.02309468822170901</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="L52">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N52">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O52">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>423</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.02027027027027027</v>
+        <v>0.0581039755351682</v>
       </c>
       <c r="L53">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2829,59 +2553,241 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>435</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.01284521515735389</v>
+        <v>0.04806201550387597</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N54">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="O54">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1537</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.009439899307740718</v>
+        <v>0.04036908881199539</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N55">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1574</v>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56">
+        <v>0.03995560488346282</v>
+      </c>
+      <c r="L56">
+        <v>36</v>
+      </c>
+      <c r="M56">
+        <v>36</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K57">
+        <v>0.03292181069958848</v>
+      </c>
+      <c r="L57">
+        <v>16</v>
+      </c>
+      <c r="M57">
+        <v>16</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K58">
+        <v>0.03281762775433662</v>
+      </c>
+      <c r="L58">
+        <v>70</v>
+      </c>
+      <c r="M58">
+        <v>80</v>
+      </c>
+      <c r="N58">
+        <v>0.88</v>
+      </c>
+      <c r="O58">
+        <v>0.12</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59">
+        <v>0.02716688227684347</v>
+      </c>
+      <c r="L59">
+        <v>84</v>
+      </c>
+      <c r="M59">
+        <v>99</v>
+      </c>
+      <c r="N59">
+        <v>0.85</v>
+      </c>
+      <c r="O59">
+        <v>0.15</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K60">
+        <v>0.01765316718587747</v>
+      </c>
+      <c r="L60">
+        <v>17</v>
+      </c>
+      <c r="M60">
+        <v>22</v>
+      </c>
+      <c r="N60">
+        <v>0.77</v>
+      </c>
+      <c r="O60">
+        <v>0.23</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K61">
+        <v>0.01725625539257981</v>
+      </c>
+      <c r="L61">
+        <v>20</v>
+      </c>
+      <c r="M61">
+        <v>22</v>
+      </c>
+      <c r="N61">
+        <v>0.91</v>
+      </c>
+      <c r="O61">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62">
+        <v>0.0150564617314931</v>
+      </c>
+      <c r="L62">
+        <v>48</v>
+      </c>
+      <c r="M62">
+        <v>61</v>
+      </c>
+      <c r="N62">
+        <v>0.79</v>
+      </c>
+      <c r="O62">
+        <v>0.21</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>3140</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -40,10 +40,19 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>died</t>
@@ -52,10 +61,7 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>war</t>
   </si>
   <si>
     <t>forced</t>
@@ -67,54 +73,51 @@
     <t>shit</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>low</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -124,72 +127,78 @@
     <t>great</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>important</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>energy</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -199,34 +208,37 @@
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>share</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>essential</t>
@@ -235,13 +247,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>shop</t>
+    <t>home</t>
   </si>
   <si>
     <t>shopping</t>
@@ -250,13 +256,10 @@
     <t>online</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
-    <t>social</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>stock</t>
@@ -265,16 +268,13 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>food</t>
@@ -638,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,38 +757,38 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L4">
         <v>31</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>31</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4">
-        <v>0.9615384615384616</v>
-      </c>
-      <c r="L4">
-        <v>25</v>
-      </c>
-      <c r="M4">
-        <v>25</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6944444444444444</v>
+        <v>0.64</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,49 +907,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.68</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C7">
+        <v>184</v>
+      </c>
+      <c r="D7">
+        <v>184</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>108</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L7">
+        <v>95</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>17</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7">
-        <v>0.8660714285714286</v>
-      </c>
-      <c r="L7">
-        <v>97</v>
-      </c>
-      <c r="M7">
-        <v>97</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6404109589041096</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C8">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6206896551724138</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,7 +1107,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3846153846153846</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3684210526315789</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.796875</v>
+        <v>0.7734375</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3513513513513514</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7746478873239436</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L13">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="M13">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2965116279069768</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C14">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>363</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="M14">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2941176470588235</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,31 +1325,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>35</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15">
+        <v>0.7464788732394366</v>
+      </c>
+      <c r="L15">
+        <v>106</v>
+      </c>
+      <c r="M15">
+        <v>106</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>36</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15">
-        <v>0.7264150943396226</v>
-      </c>
-      <c r="L15">
-        <v>77</v>
-      </c>
-      <c r="M15">
-        <v>77</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2933333333333333</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7037037037037037</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2169312169312169</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>148</v>
+        <v>363</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.6984126984126984</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1948051948051948</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.68125</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L18">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,37 +1507,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.189873417721519</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E19">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1578,16 +1578,16 @@
         <v>121</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.6702127659574468</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L20">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1428571428571428</v>
+        <v>0.1625</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1657,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.04021447721179625</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>358</v>
+        <v>225</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22">
         <v>0.6458333333333334</v>
@@ -1707,37 +1707,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004961958319550115</v>
+        <v>0.06720430107526881</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E23">
-        <v>0.85</v>
+        <v>0.04</v>
       </c>
       <c r="F23">
-        <v>0.15</v>
+        <v>0.96</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3008</v>
+        <v>347</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,13 +1757,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.004123057405645417</v>
+        <v>0.004445855827246745</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <v>0.79</v>
@@ -1775,19 +1775,19 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3140</v>
+        <v>3135</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.62</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,12 +1799,36 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.004307488402915839</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>102</v>
+      </c>
+      <c r="E25">
+        <v>0.87</v>
+      </c>
+      <c r="F25">
+        <v>0.13</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3005</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25">
         <v>0.6111111111111112</v>
@@ -1830,16 +1854,16 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.566579634464752</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L26">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1851,21 +1875,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>166</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5294117647058824</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1877,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5280898876404494</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1903,21 +1927,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5185185185185185</v>
+        <v>0.5613577023498695</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1929,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5058823529411764</v>
+        <v>0.525</v>
       </c>
       <c r="L30">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1955,21 +1979,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>168</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1981,21 +2005,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.4779661016949153</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L32">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="M32">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2007,21 +2031,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.4769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2033,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4383561643835616</v>
+        <v>0.4949152542372882</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2059,21 +2083,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4230769230769231</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2085,21 +2109,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.4225941422594142</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L36">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2111,21 +2135,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.4</v>
+        <v>0.4518828451882845</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2137,21 +2161,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.390625</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2163,21 +2187,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2189,21 +2213,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.3023255813953488</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2215,21 +2239,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.2571428571428571</v>
+        <v>0.359375</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2241,21 +2265,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.2542372881355932</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2267,21 +2291,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.1417322834645669</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2293,21 +2317,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>109</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.1116279069767442</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2319,21 +2343,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>191</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K45">
-        <v>0.1068702290076336</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2345,21 +2369,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K46">
-        <v>0.1006289308176101</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2371,47 +2395,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K47">
-        <v>0.08648648648648649</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>0.07932692307692307</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L48">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2423,21 +2447,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>383</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.07894736842105263</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L49">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2449,21 +2473,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>0.07441860465116279</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2475,21 +2499,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>199</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.07158836689038031</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L51">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M51">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2501,47 +2525,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>830</v>
+        <v>842</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0.06578947368421052</v>
+        <v>0.05216426193118757</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N52">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>213</v>
+        <v>854</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K53">
-        <v>0.0581039755351682</v>
+        <v>0.05198776758409786</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2553,73 +2577,73 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.04806201550387597</v>
+        <v>0.04776579352850539</v>
       </c>
       <c r="L54">
         <v>31</v>
       </c>
       <c r="M54">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N54">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.04036908881199539</v>
+        <v>0.03563056727613689</v>
       </c>
       <c r="L55">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="M55">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>832</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56">
-        <v>0.03995560488346282</v>
+        <v>0.03344867358708189</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2631,33 +2655,33 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>865</v>
+        <v>838</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="K57">
-        <v>0.03292181069958848</v>
+        <v>0.02876535229476406</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>470</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2665,77 +2689,77 @@
         <v>86</v>
       </c>
       <c r="K58">
-        <v>0.03281762775433662</v>
+        <v>0.0268041237113402</v>
       </c>
       <c r="L58">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="N58">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="O58">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>2063</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>0.02716688227684347</v>
+        <v>0.01966873706004141</v>
       </c>
       <c r="L59">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="N59">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O59">
-        <v>0.15</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>3008</v>
+        <v>947</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="K60">
-        <v>0.01765316718587747</v>
+        <v>0.01631628490743646</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M60">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N60">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="O60">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>946</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2743,51 +2767,25 @@
         <v>88</v>
       </c>
       <c r="K61">
-        <v>0.01725625539257981</v>
+        <v>0.01295336787564767</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N61">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="O61">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62">
-        <v>0.0150564617314931</v>
-      </c>
-      <c r="L62">
-        <v>48</v>
-      </c>
-      <c r="M62">
-        <v>61</v>
-      </c>
-      <c r="N62">
-        <v>0.79</v>
-      </c>
-      <c r="O62">
-        <v>0.21</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>3140</v>
+        <v>1143</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,10 +43,13 @@
     <t>killed</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>died</t>
   </si>
   <si>
     <t>warning</t>
@@ -55,205 +58,229 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>alert</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>give</t>
+    <t>essential</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>essential</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>delivery</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>store</t>
@@ -265,16 +292,22 @@
     <t>stock</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>san</t>
+  </si>
+  <si>
+    <t>toilet</t>
   </si>
   <si>
     <t>food</t>
@@ -638,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,7 +682,7 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,13 +764,13 @@
         <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,13 +790,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -857,13 +890,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.64</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +940,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6301369863013698</v>
+        <v>0.68</v>
       </c>
       <c r="C7">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +990,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6153846153846154</v>
+        <v>0.678082191780822</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8148148148148148</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1040,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5263157894736842</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K10">
-        <v>0.7804878048780488</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1140,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5172413793103449</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1190,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4666666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>0.7734375</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1240,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3846153846153846</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7583333333333333</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1290,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3611111111111111</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1340,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3137254901960784</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7464788732394366</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L15">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3066666666666666</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7452830188679245</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1440,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2965116279069768</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C17">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D17">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7272727272727273</v>
+        <v>0.7421875</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1490,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2363636363636364</v>
+        <v>0.28</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7254901960784313</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1540,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2222222222222222</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1558,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7037037037037037</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1590,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1879194630872483</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7021276595744681</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1607,13 +1640,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1625</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>0.6842105263157895</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1690,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1071428571428571</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,19 +1708,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K22">
-        <v>0.6458333333333334</v>
+        <v>0.71875</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,37 +1740,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06720430107526881</v>
+        <v>0.05093833780160858</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>0.6190476190476191</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,37 +1790,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.004445855827246745</v>
+        <v>0.004682274247491638</v>
       </c>
       <c r="C24">
         <v>14</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="E24">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="F24">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3135</v>
+        <v>2976</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K24">
-        <v>0.6176470588235294</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,37 +1840,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.004307488402915839</v>
+        <v>0.004150702426564496</v>
       </c>
       <c r="C25">
         <v>13</v>
       </c>
       <c r="D25">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E25">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="F25">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3005</v>
+        <v>3119</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K25">
-        <v>0.6111111111111112</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,13 +1890,13 @@
         <v>55</v>
       </c>
       <c r="K26">
-        <v>0.6063829787234043</v>
+        <v>0.66</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1875,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1883,7 +1916,7 @@
         <v>56</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L27">
         <v>30</v>
@@ -1901,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1909,13 +1942,13 @@
         <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5777777777777777</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1927,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1935,13 +1968,13 @@
         <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5613577023498695</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L29">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1953,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>168</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1961,13 +1994,13 @@
         <v>59</v>
       </c>
       <c r="K30">
-        <v>0.525</v>
+        <v>0.5953002610966057</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1979,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1987,13 +2020,13 @@
         <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5168539325842697</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2005,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2013,13 +2046,13 @@
         <v>61</v>
       </c>
       <c r="K32">
-        <v>0.5147058823529411</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L32">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2031,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>165</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2039,13 +2072,13 @@
         <v>62</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5264705882352941</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2057,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2065,13 +2098,13 @@
         <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4949152542372882</v>
+        <v>0.475</v>
       </c>
       <c r="L34">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2083,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2091,13 +2124,13 @@
         <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4871794871794872</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2109,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2117,13 +2150,13 @@
         <v>65</v>
       </c>
       <c r="K36">
-        <v>0.4545454545454545</v>
+        <v>0.4711864406779661</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2135,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2143,13 +2176,13 @@
         <v>66</v>
       </c>
       <c r="K37">
-        <v>0.4518828451882845</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L37">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2161,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2169,13 +2202,13 @@
         <v>67</v>
       </c>
       <c r="K38">
-        <v>0.4383561643835616</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2187,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2195,13 +2228,13 @@
         <v>68</v>
       </c>
       <c r="K39">
-        <v>0.4</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2213,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2221,13 +2254,13 @@
         <v>69</v>
       </c>
       <c r="K40">
-        <v>0.3714285714285714</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2239,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2247,13 +2280,13 @@
         <v>70</v>
       </c>
       <c r="K41">
-        <v>0.359375</v>
+        <v>0.4393305439330544</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2265,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>41</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2273,13 +2306,13 @@
         <v>71</v>
       </c>
       <c r="K42">
-        <v>0.3023255813953488</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2291,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2299,13 +2332,13 @@
         <v>72</v>
       </c>
       <c r="K43">
-        <v>0.2222222222222222</v>
+        <v>0.4375</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2317,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2325,13 +2358,13 @@
         <v>73</v>
       </c>
       <c r="K44">
-        <v>0.2131147540983606</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2343,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2351,13 +2384,13 @@
         <v>74</v>
       </c>
       <c r="K45">
-        <v>0.1145038167938931</v>
+        <v>0.425</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2369,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>116</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2377,13 +2410,13 @@
         <v>75</v>
       </c>
       <c r="K46">
-        <v>0.1102362204724409</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2395,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>113</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2403,25 +2436,25 @@
         <v>76</v>
       </c>
       <c r="K47">
-        <v>0.09859154929577464</v>
+        <v>0.4</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N47">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>192</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2429,25 +2462,25 @@
         <v>77</v>
       </c>
       <c r="K48">
-        <v>0.08837209302325581</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>196</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2455,13 +2488,13 @@
         <v>78</v>
       </c>
       <c r="K49">
-        <v>0.08173076923076923</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L49">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2473,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>382</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2481,13 +2514,13 @@
         <v>79</v>
       </c>
       <c r="K50">
-        <v>0.07177033492822966</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="L50">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2499,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>388</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2507,13 +2540,13 @@
         <v>80</v>
       </c>
       <c r="K51">
-        <v>0.058165548098434</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L51">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2525,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>842</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2533,25 +2566,25 @@
         <v>81</v>
       </c>
       <c r="K52">
-        <v>0.05216426193118757</v>
+        <v>0.1031175059952038</v>
       </c>
       <c r="L52">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M52">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>854</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2559,25 +2592,25 @@
         <v>82</v>
       </c>
       <c r="K53">
-        <v>0.05198776758409786</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>310</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2585,25 +2618,25 @@
         <v>83</v>
       </c>
       <c r="K54">
-        <v>0.04776579352850539</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>618</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2611,25 +2644,25 @@
         <v>84</v>
       </c>
       <c r="K55">
-        <v>0.03563056727613689</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L55">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="N55">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2057</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2637,13 +2670,13 @@
         <v>85</v>
       </c>
       <c r="K56">
-        <v>0.03344867358708189</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2655,137 +2688,423 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>838</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>0.02876535229476406</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="L57">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="N57">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>3005</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>0.0268041237113402</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>472</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K59">
-        <v>0.01966873706004141</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L59">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N59">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>947</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>0.01631628490743646</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="L60">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M60">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N60">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>3135</v>
+        <v>832</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K61">
-        <v>0.01295336787564767</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M61">
+        <v>57</v>
+      </c>
+      <c r="N61">
+        <v>0.98</v>
+      </c>
+      <c r="O61">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62">
+        <v>0.0581039755351682</v>
+      </c>
+      <c r="L62">
+        <v>19</v>
+      </c>
+      <c r="M62">
+        <v>19</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K63">
+        <v>0.05536332179930796</v>
+      </c>
+      <c r="L63">
+        <v>48</v>
+      </c>
+      <c r="M63">
+        <v>48</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K64">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="L64">
+        <v>16</v>
+      </c>
+      <c r="M64">
+        <v>16</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K65">
+        <v>0.0500701918577445</v>
+      </c>
+      <c r="L65">
+        <v>107</v>
+      </c>
+      <c r="M65">
+        <v>113</v>
+      </c>
+      <c r="N65">
+        <v>0.95</v>
+      </c>
+      <c r="O65">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K66">
+        <v>0.04938271604938271</v>
+      </c>
+      <c r="L66">
+        <v>32</v>
+      </c>
+      <c r="M66">
+        <v>34</v>
+      </c>
+      <c r="N66">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O66">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K67">
+        <v>0.0411522633744856</v>
+      </c>
+      <c r="L67">
+        <v>20</v>
+      </c>
+      <c r="M67">
+        <v>20</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68">
+        <v>0.03782735208535402</v>
+      </c>
+      <c r="L68">
+        <v>117</v>
+      </c>
+      <c r="M68">
+        <v>131</v>
+      </c>
+      <c r="N68">
+        <v>0.89</v>
+      </c>
+      <c r="O68">
+        <v>0.11</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K69">
+        <v>0.03003533568904593</v>
+      </c>
+      <c r="L69">
+        <v>17</v>
+      </c>
+      <c r="M69">
         <v>18</v>
       </c>
-      <c r="N61">
-        <v>0.83</v>
-      </c>
-      <c r="O61">
-        <v>0.17</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1143</v>
+      <c r="N69">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O69">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K70">
+        <v>0.02688728024819028</v>
+      </c>
+      <c r="L70">
+        <v>26</v>
+      </c>
+      <c r="M70">
+        <v>27</v>
+      </c>
+      <c r="N70">
+        <v>0.96</v>
+      </c>
+      <c r="O70">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71">
+        <v>0.02164366373902133</v>
+      </c>
+      <c r="L71">
+        <v>69</v>
+      </c>
+      <c r="M71">
+        <v>82</v>
+      </c>
+      <c r="N71">
+        <v>0.84</v>
+      </c>
+      <c r="O71">
+        <v>0.16</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K72">
+        <v>0.01725625539257981</v>
+      </c>
+      <c r="L72">
+        <v>20</v>
+      </c>
+      <c r="M72">
+        <v>22</v>
+      </c>
+      <c r="N72">
+        <v>0.91</v>
+      </c>
+      <c r="O72">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
